--- a/Model/BayesLSTM/Multivariate/result/Manufacturing/BRA.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Manufacturing/BRA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>17.61138343811035</v>
+        <v>24.58463287353516</v>
       </c>
       <c r="C2" t="n">
-        <v>11.89208221435547</v>
+        <v>20.4492244720459</v>
       </c>
       <c r="D2" t="n">
-        <v>23.33068466186523</v>
+        <v>28.72004127502441</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>16.16851234436035</v>
+        <v>24.56613922119141</v>
       </c>
       <c r="C3" t="n">
-        <v>10.24246025085449</v>
+        <v>22.16534996032715</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09456443786621</v>
+        <v>26.96692848205566</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>14.43036842346191</v>
+        <v>18.60134506225586</v>
       </c>
       <c r="C4" t="n">
-        <v>9.256553649902344</v>
+        <v>7.593194961547852</v>
       </c>
       <c r="D4" t="n">
-        <v>19.60418319702148</v>
+        <v>29.60949516296387</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>16.16666793823242</v>
+        <v>20.60917854309082</v>
       </c>
       <c r="C5" t="n">
-        <v>12.04434013366699</v>
+        <v>11.09626007080078</v>
       </c>
       <c r="D5" t="n">
-        <v>20.28899574279785</v>
+        <v>30.12209701538086</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>15.43551445007324</v>
+        <v>16.46529006958008</v>
       </c>
       <c r="C6" t="n">
-        <v>6.27907657623291</v>
+        <v>8.902838706970215</v>
       </c>
       <c r="D6" t="n">
-        <v>24.59195327758789</v>
+        <v>24.02774047851562</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>13.74007892608643</v>
+        <v>16.9453010559082</v>
       </c>
       <c r="C7" t="n">
-        <v>11.87103939056396</v>
+        <v>10.65290069580078</v>
       </c>
       <c r="D7" t="n">
-        <v>15.60911846160889</v>
+        <v>23.23770141601562</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>13.87325000762939</v>
+        <v>15.54322528839111</v>
       </c>
       <c r="C8" t="n">
-        <v>7.97407865524292</v>
+        <v>8.756226539611816</v>
       </c>
       <c r="D8" t="n">
-        <v>19.77242088317871</v>
+        <v>22.33022308349609</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>12.71757698059082</v>
+        <v>16.05554580688477</v>
       </c>
       <c r="C9" t="n">
-        <v>7.718894481658936</v>
+        <v>10.03539371490479</v>
       </c>
       <c r="D9" t="n">
-        <v>17.71625900268555</v>
+        <v>22.07569885253906</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>15.83594703674316</v>
+        <v>15.73731803894043</v>
       </c>
       <c r="C10" t="n">
-        <v>9.87254810333252</v>
+        <v>9.243043899536133</v>
       </c>
       <c r="D10" t="n">
-        <v>21.79934692382812</v>
+        <v>22.23159217834473</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>15.56339740753174</v>
+        <v>15.9909086227417</v>
       </c>
       <c r="C11" t="n">
-        <v>8.903416633605957</v>
+        <v>9.64698600769043</v>
       </c>
       <c r="D11" t="n">
-        <v>22.2233772277832</v>
+        <v>22.33483123779297</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>16.50362968444824</v>
+        <v>15.76463794708252</v>
       </c>
       <c r="C12" t="n">
-        <v>7.901674270629883</v>
+        <v>8.694839477539062</v>
       </c>
       <c r="D12" t="n">
-        <v>25.1055850982666</v>
+        <v>22.83443641662598</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>17.14950561523438</v>
+        <v>14.54895305633545</v>
       </c>
       <c r="C13" t="n">
-        <v>7.35667896270752</v>
+        <v>12.2894115447998</v>
       </c>
       <c r="D13" t="n">
-        <v>26.94233322143555</v>
+        <v>16.80849456787109</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>17.26546669006348</v>
+        <v>15.46447563171387</v>
       </c>
       <c r="C14" t="n">
-        <v>7.731575965881348</v>
+        <v>10.34092712402344</v>
       </c>
       <c r="D14" t="n">
-        <v>26.79935836791992</v>
+        <v>20.5880241394043</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>13.52126121520996</v>
+        <v>15.33815288543701</v>
       </c>
       <c r="C15" t="n">
-        <v>3.811878204345703</v>
+        <v>12.96957302093506</v>
       </c>
       <c r="D15" t="n">
-        <v>23.23064422607422</v>
+        <v>17.70673370361328</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>16.69643783569336</v>
+        <v>15.84459686279297</v>
       </c>
       <c r="C16" t="n">
-        <v>9.599664688110352</v>
+        <v>8.614013671875</v>
       </c>
       <c r="D16" t="n">
-        <v>23.79321098327637</v>
+        <v>23.07518005371094</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>17.26571655273438</v>
+        <v>15.99099540710449</v>
       </c>
       <c r="C17" t="n">
-        <v>8.582754135131836</v>
+        <v>9.682826995849609</v>
       </c>
       <c r="D17" t="n">
-        <v>25.94867897033691</v>
+        <v>22.29916381835938</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>17.87725448608398</v>
+        <v>15.01511096954346</v>
       </c>
       <c r="C18" t="n">
-        <v>8.823489189147949</v>
+        <v>12.84485244750977</v>
       </c>
       <c r="D18" t="n">
-        <v>26.9310188293457</v>
+        <v>17.18536949157715</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>15.71259307861328</v>
+        <v>15.46295166015625</v>
       </c>
       <c r="C19" t="n">
-        <v>8.627338409423828</v>
+        <v>12.5212516784668</v>
       </c>
       <c r="D19" t="n">
-        <v>22.79784774780273</v>
+        <v>18.4046516418457</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>16.85992431640625</v>
+        <v>14.67233276367188</v>
       </c>
       <c r="C20" t="n">
-        <v>10.65317916870117</v>
+        <v>14.25442504882812</v>
       </c>
       <c r="D20" t="n">
-        <v>23.06666946411133</v>
+        <v>15.09024047851562</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>16.86941909790039</v>
+        <v>14.98506164550781</v>
       </c>
       <c r="C21" t="n">
-        <v>9.969160079956055</v>
+        <v>14.4745512008667</v>
       </c>
       <c r="D21" t="n">
-        <v>23.76967811584473</v>
+        <v>15.49557209014893</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>16.75321769714355</v>
+        <v>14.56905841827393</v>
       </c>
       <c r="C22" t="n">
-        <v>9.038359642028809</v>
+        <v>13.93779468536377</v>
       </c>
       <c r="D22" t="n">
-        <v>24.46807479858398</v>
+        <v>15.20032215118408</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>18.33730697631836</v>
+        <v>15.02767181396484</v>
       </c>
       <c r="C23" t="n">
-        <v>11.6368579864502</v>
+        <v>14.34967708587646</v>
       </c>
       <c r="D23" t="n">
-        <v>25.03775596618652</v>
+        <v>15.70566654205322</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>17.79302787780762</v>
+        <v>14.65768909454346</v>
       </c>
       <c r="C24" t="n">
-        <v>9.640034675598145</v>
+        <v>14.18082714080811</v>
       </c>
       <c r="D24" t="n">
-        <v>25.94602203369141</v>
+        <v>15.13455104827881</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>15.38022804260254</v>
+        <v>15.00264263153076</v>
       </c>
       <c r="C25" t="n">
-        <v>8.360012054443359</v>
+        <v>14.4938383102417</v>
       </c>
       <c r="D25" t="n">
-        <v>22.40044403076172</v>
+        <v>15.51144695281982</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>17.66301345825195</v>
+        <v>14.64490032196045</v>
       </c>
       <c r="C26" t="n">
-        <v>7.711686134338379</v>
+        <v>14.25005722045898</v>
       </c>
       <c r="D26" t="n">
-        <v>27.61434173583984</v>
+        <v>15.03974342346191</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>15.88938617706299</v>
+        <v>14.9414701461792</v>
       </c>
       <c r="C27" t="n">
-        <v>9.930755615234375</v>
+        <v>14.51078605651855</v>
       </c>
       <c r="D27" t="n">
-        <v>21.8480167388916</v>
+        <v>15.37215423583984</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>16.22529029846191</v>
+        <v>14.59860515594482</v>
       </c>
       <c r="C28" t="n">
-        <v>8.854925155639648</v>
+        <v>14.01652431488037</v>
       </c>
       <c r="D28" t="n">
-        <v>23.59565544128418</v>
+        <v>15.18068599700928</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>17.10964393615723</v>
+        <v>14.93997192382812</v>
       </c>
       <c r="C29" t="n">
-        <v>11.07123184204102</v>
+        <v>14.51462936401367</v>
       </c>
       <c r="D29" t="n">
-        <v>23.14805603027344</v>
+        <v>15.36531448364258</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>16.40066909790039</v>
+        <v>14.56637859344482</v>
       </c>
       <c r="C30" t="n">
-        <v>6.546975135803223</v>
+        <v>13.69511890411377</v>
       </c>
       <c r="D30" t="n">
-        <v>26.25436401367188</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>14.92855262756348</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7.589394569396973</v>
-      </c>
-      <c r="D31" t="n">
-        <v>22.2677116394043</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>15.05968761444092</v>
-      </c>
-      <c r="C32" t="n">
-        <v>8.410072326660156</v>
-      </c>
-      <c r="D32" t="n">
-        <v>21.70930290222168</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>15.98808574676514</v>
-      </c>
-      <c r="C33" t="n">
-        <v>9.469499588012695</v>
-      </c>
-      <c r="D33" t="n">
-        <v>22.50667190551758</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>16.50714492797852</v>
-      </c>
-      <c r="C34" t="n">
-        <v>7.459843635559082</v>
-      </c>
-      <c r="D34" t="n">
-        <v>25.55444717407227</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>16.7050895690918</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7.954875946044922</v>
-      </c>
-      <c r="D35" t="n">
-        <v>25.45530319213867</v>
+        <v>15.43763828277588</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>15.08031539916992</v>
+        <v>14.98005104064941</v>
       </c>
       <c r="C2" t="n">
-        <v>7.890958555758706</v>
+        <v>14.53495121002197</v>
       </c>
       <c r="D2" t="n">
-        <v>22.26967224258114</v>
+        <v>15.42515087127686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0035285949707</v>
+        <v>14.59810352325439</v>
       </c>
       <c r="C3" t="n">
-        <v>7.912197921368373</v>
+        <v>14.26966953277588</v>
       </c>
       <c r="D3" t="n">
-        <v>18.09485926857303</v>
+        <v>14.92653751373291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>14.70915632247925</v>
+        <v>14.9673900604248</v>
       </c>
       <c r="C4" t="n">
-        <v>8.603400974213663</v>
+        <v>14.54115962982178</v>
       </c>
       <c r="D4" t="n">
-        <v>20.81491167074483</v>
+        <v>15.39362049102783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>12.78518438339233</v>
+        <v>14.65739154815674</v>
       </c>
       <c r="C5" t="n">
-        <v>8.154368993304477</v>
+        <v>14.26070499420166</v>
       </c>
       <c r="D5" t="n">
-        <v>17.41599977348019</v>
+        <v>15.05407810211182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7872109413147</v>
+        <v>14.97197723388672</v>
       </c>
       <c r="C6" t="n">
-        <v>12.98278772784202</v>
+        <v>14.53524684906006</v>
       </c>
       <c r="D6" t="n">
-        <v>22.59163415478737</v>
+        <v>15.40870761871338</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>19.24155235290527</v>
+        <v>18.74653625488281</v>
       </c>
       <c r="C2" t="n">
-        <v>14.47220230102539</v>
+        <v>13.00316429138184</v>
       </c>
       <c r="D2" t="n">
-        <v>24.01090240478516</v>
+        <v>24.48990821838379</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>20.52933502197266</v>
+        <v>18.38708686828613</v>
       </c>
       <c r="C3" t="n">
-        <v>16.99729347229004</v>
+        <v>11.42185306549072</v>
       </c>
       <c r="D3" t="n">
-        <v>24.06137657165527</v>
+        <v>25.35232162475586</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>21.45734786987305</v>
+        <v>16.61490631103516</v>
       </c>
       <c r="C4" t="n">
-        <v>17.3632869720459</v>
+        <v>10.71944141387939</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5514087677002</v>
+        <v>22.51037216186523</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>21.00246047973633</v>
+        <v>15.28634643554688</v>
       </c>
       <c r="C5" t="n">
-        <v>15.37365818023682</v>
+        <v>11.03467178344727</v>
       </c>
       <c r="D5" t="n">
-        <v>26.63126373291016</v>
+        <v>19.53802108764648</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>21.64955520629883</v>
+        <v>15.29004096984863</v>
       </c>
       <c r="C6" t="n">
-        <v>14.81148147583008</v>
+        <v>10.8304271697998</v>
       </c>
       <c r="D6" t="n">
-        <v>28.48762893676758</v>
+        <v>19.74965476989746</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>21.86514854431152</v>
+        <v>14.93748474121094</v>
       </c>
       <c r="C7" t="n">
-        <v>17.40022850036621</v>
+        <v>10.20046520233154</v>
       </c>
       <c r="D7" t="n">
-        <v>26.33006858825684</v>
+        <v>19.67450332641602</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>20.59588050842285</v>
+        <v>14.21937847137451</v>
       </c>
       <c r="C8" t="n">
-        <v>16.18995666503906</v>
+        <v>13.56541728973389</v>
       </c>
       <c r="D8" t="n">
-        <v>25.00180435180664</v>
+        <v>14.87333965301514</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1247673034668</v>
+        <v>14.17180919647217</v>
       </c>
       <c r="C9" t="n">
-        <v>17.98103713989258</v>
+        <v>14.00389862060547</v>
       </c>
       <c r="D9" t="n">
-        <v>24.26849746704102</v>
+        <v>14.33971977233887</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>21.53220558166504</v>
+        <v>14.14756011962891</v>
       </c>
       <c r="C10" t="n">
-        <v>16.37410736083984</v>
+        <v>13.82899188995361</v>
       </c>
       <c r="D10" t="n">
-        <v>26.69030380249023</v>
+        <v>14.4661283493042</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>22.17741394042969</v>
+        <v>14.17757129669189</v>
       </c>
       <c r="C11" t="n">
-        <v>15.90538787841797</v>
+        <v>13.77404022216797</v>
       </c>
       <c r="D11" t="n">
-        <v>28.44944000244141</v>
+        <v>14.58110237121582</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>21.92107582092285</v>
+        <v>14.16773986816406</v>
       </c>
       <c r="C12" t="n">
-        <v>16.48031616210938</v>
+        <v>13.87328052520752</v>
       </c>
       <c r="D12" t="n">
-        <v>27.36183547973633</v>
+        <v>14.46219921112061</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>20.41496467590332</v>
+        <v>14.11492156982422</v>
       </c>
       <c r="C13" t="n">
-        <v>14.44386863708496</v>
+        <v>13.84825325012207</v>
       </c>
       <c r="D13" t="n">
-        <v>26.38606071472168</v>
+        <v>14.38158988952637</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>20.72024917602539</v>
+        <v>14.10832786560059</v>
       </c>
       <c r="C14" t="n">
-        <v>16.86092567443848</v>
+        <v>13.97706604003906</v>
       </c>
       <c r="D14" t="n">
-        <v>24.5795726776123</v>
+        <v>14.23958969116211</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>21.83903694152832</v>
+        <v>14.11444568634033</v>
       </c>
       <c r="C15" t="n">
-        <v>15.98739051818848</v>
+        <v>13.98135566711426</v>
       </c>
       <c r="D15" t="n">
-        <v>27.69068336486816</v>
+        <v>14.24753570556641</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>21.33541297912598</v>
+        <v>14.15142250061035</v>
       </c>
       <c r="C16" t="n">
-        <v>16.15619850158691</v>
+        <v>13.88920497894287</v>
       </c>
       <c r="D16" t="n">
-        <v>26.51462745666504</v>
+        <v>14.41364002227783</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>20.68762397766113</v>
+        <v>14.11251544952393</v>
       </c>
       <c r="C17" t="n">
-        <v>15.24201583862305</v>
+        <v>13.82901287078857</v>
       </c>
       <c r="D17" t="n">
-        <v>26.13323211669922</v>
+        <v>14.39601802825928</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>19.70083999633789</v>
+        <v>14.17374420166016</v>
       </c>
       <c r="C18" t="n">
-        <v>12.767502784729</v>
+        <v>13.97864723205566</v>
       </c>
       <c r="D18" t="n">
-        <v>26.63417816162109</v>
+        <v>14.36884117126465</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>20.05708122253418</v>
+        <v>14.14356422424316</v>
       </c>
       <c r="C19" t="n">
-        <v>14.89365386962891</v>
+        <v>13.99164485931396</v>
       </c>
       <c r="D19" t="n">
-        <v>25.22050857543945</v>
+        <v>14.29548358917236</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>20.64571952819824</v>
+        <v>14.12718963623047</v>
       </c>
       <c r="C20" t="n">
-        <v>14.6208963394165</v>
+        <v>13.86897659301758</v>
       </c>
       <c r="D20" t="n">
-        <v>26.6705436706543</v>
+        <v>14.38540267944336</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>19.06386756896973</v>
+        <v>14.08143043518066</v>
       </c>
       <c r="C21" t="n">
-        <v>15.68373680114746</v>
+        <v>13.822021484375</v>
       </c>
       <c r="D21" t="n">
-        <v>22.44399833679199</v>
+        <v>14.34083938598633</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>18.52811050415039</v>
+        <v>14.13107585906982</v>
       </c>
       <c r="C22" t="n">
-        <v>13.39431190490723</v>
+        <v>13.99336242675781</v>
       </c>
       <c r="D22" t="n">
-        <v>23.66190910339355</v>
+        <v>14.26878929138184</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>19.61261558532715</v>
+        <v>14.09459400177002</v>
       </c>
       <c r="C23" t="n">
-        <v>13.77404975891113</v>
+        <v>13.88779354095459</v>
       </c>
       <c r="D23" t="n">
-        <v>25.45118141174316</v>
+        <v>14.30139446258545</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>20.31123733520508</v>
+        <v>14.61258220672607</v>
       </c>
       <c r="C24" t="n">
-        <v>16.45595932006836</v>
+        <v>11.94241333007812</v>
       </c>
       <c r="D24" t="n">
-        <v>24.1665153503418</v>
+        <v>17.28275108337402</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>19.80844116210938</v>
+        <v>14.3923511505127</v>
       </c>
       <c r="C25" t="n">
-        <v>14.24087238311768</v>
+        <v>12.23698806762695</v>
       </c>
       <c r="D25" t="n">
-        <v>25.37601089477539</v>
+        <v>16.54771423339844</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>19.66054534912109</v>
+        <v>14.12471199035645</v>
       </c>
       <c r="C26" t="n">
-        <v>15.96622562408447</v>
+        <v>13.83805561065674</v>
       </c>
       <c r="D26" t="n">
-        <v>23.35486602783203</v>
+        <v>14.41136837005615</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>19.82492446899414</v>
+        <v>14.08820056915283</v>
       </c>
       <c r="C27" t="n">
-        <v>14.10781860351562</v>
+        <v>13.88915538787842</v>
       </c>
       <c r="D27" t="n">
-        <v>25.54203033447266</v>
+        <v>14.28724575042725</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>19.0536994934082</v>
+        <v>14.23854637145996</v>
       </c>
       <c r="C28" t="n">
-        <v>13.26287269592285</v>
+        <v>13.46736621856689</v>
       </c>
       <c r="D28" t="n">
-        <v>24.84452629089355</v>
+        <v>15.00972652435303</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>21.4804630279541</v>
+        <v>14.31169700622559</v>
       </c>
       <c r="C29" t="n">
-        <v>15.80031776428223</v>
+        <v>13.4625415802002</v>
       </c>
       <c r="D29" t="n">
-        <v>27.16060829162598</v>
+        <v>15.16085243225098</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>21.50362586975098</v>
+        <v>14.22952461242676</v>
       </c>
       <c r="C30" t="n">
-        <v>16.64645004272461</v>
+        <v>13.82930469512939</v>
       </c>
       <c r="D30" t="n">
-        <v>26.36080169677734</v>
+        <v>14.62974452972412</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>20.06856918334961</v>
+        <v>14.07515716552734</v>
       </c>
       <c r="C31" t="n">
-        <v>15.89140701293945</v>
+        <v>13.82461261749268</v>
       </c>
       <c r="D31" t="n">
-        <v>24.24573135375977</v>
+        <v>14.32570171356201</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>20.06024169921875</v>
+        <v>14.13242340087891</v>
       </c>
       <c r="C32" t="n">
-        <v>15.13773536682129</v>
+        <v>13.91451358795166</v>
       </c>
       <c r="D32" t="n">
-        <v>24.98274803161621</v>
+        <v>14.35033321380615</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>18.56255149841309</v>
+        <v>14.19479942321777</v>
       </c>
       <c r="C33" t="n">
-        <v>12.42050170898438</v>
+        <v>13.43310356140137</v>
       </c>
       <c r="D33" t="n">
-        <v>24.7046012878418</v>
+        <v>14.95649528503418</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>19.52131271362305</v>
+        <v>14.16122245788574</v>
       </c>
       <c r="C34" t="n">
-        <v>12.22297191619873</v>
+        <v>13.90115070343018</v>
       </c>
       <c r="D34" t="n">
-        <v>26.81965255737305</v>
+        <v>14.42129421234131</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>19.99813842773438</v>
+        <v>14.12366008758545</v>
       </c>
       <c r="C35" t="n">
-        <v>13.89031410217285</v>
+        <v>13.98605537414551</v>
       </c>
       <c r="D35" t="n">
-        <v>26.1059627532959</v>
+        <v>14.26126480102539</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>11.58068265914917</v>
+        <v>25.83167591094971</v>
       </c>
       <c r="C2" t="n">
-        <v>6.129567905311011</v>
+        <v>18.68327137479514</v>
       </c>
       <c r="D2" t="n">
-        <v>17.03179741298733</v>
+        <v>32.98008044710427</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>13.54109334945679</v>
+        <v>20.30564994812012</v>
       </c>
       <c r="C3" t="n">
-        <v>9.545486943005189</v>
+        <v>11.8410311917228</v>
       </c>
       <c r="D3" t="n">
-        <v>17.53669975590838</v>
+        <v>28.77026870451743</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>14.31317434310913</v>
+        <v>19.68700170516968</v>
       </c>
       <c r="C4" t="n">
-        <v>8.306298569233046</v>
+        <v>11.91295345713671</v>
       </c>
       <c r="D4" t="n">
-        <v>20.32005011698521</v>
+        <v>27.46104995320265</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>20.55096988677979</v>
+        <v>18.75282077789307</v>
       </c>
       <c r="C5" t="n">
-        <v>17.44651774015226</v>
+        <v>12.03053361492551</v>
       </c>
       <c r="D5" t="n">
-        <v>23.65542203340731</v>
+        <v>25.47510794086063</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>19.24989957809448</v>
+        <v>17.38223495483398</v>
       </c>
       <c r="C6" t="n">
-        <v>14.5385886469485</v>
+        <v>13.13825669287736</v>
       </c>
       <c r="D6" t="n">
-        <v>23.96121050924047</v>
+        <v>21.6262132167906</v>
       </c>
     </row>
   </sheetData>
